--- a/script_ML_Coatingsystem/200228_coatingdata.xlsx
+++ b/script_ML_Coatingsystem/200228_coatingdata.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\Python\QM_Develop_Machinelearning\script_ML_Coatingsystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wonju\Documents\GitHub\QM_Develop_Machinelearning\script_ML_Coatingsystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,1590 +351,1590 @@
   <dimension ref="A1:A316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>122.40000000001601</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+        <v>707.51445086714466</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>122.40000000001601</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+        <v>707.51445086714466</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>122.40000000001601</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+        <v>707.51445086714466</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>122.40000000001601</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+        <v>707.51445086714466</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>122.40000000001601</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+        <v>707.51445086714466</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>122.40000000001601</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+        <v>707.51445086714466</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>122.40000000001601</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+        <v>707.51445086714466</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>205.99999999999832</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+        <v>1190.7514450866956</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>205.99999999999832</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+        <v>1190.7514450866956</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>205.99999999999832</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+        <v>1190.7514450866956</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>205.99999999999832</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+        <v>1190.7514450866956</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>205.99999999999832</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+        <v>1190.7514450866956</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>205.99999999999832</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+        <v>1190.7514450866956</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>205.99999999999832</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+        <v>1190.7514450866956</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>-78.999999999950901</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-456.64739884364678</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>-125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-722.54335260115613</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>-68.999999999959996</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-398.84393063560685</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>-82.999999999970001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-479.7687861269942</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>-106.999999999971</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-618.49710982642137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>-54.000000000087297</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-312.13872832420412</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>-128.99999999990499</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-745.66473988384632</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>-27.735381748550893</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-160.32012571416698</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>-73.735381748599991</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-426.21607947167632</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>-17.735381748559988</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-102.51665750612705</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>-31.735381748569992</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-183.44151299751439</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>-55.735381748570987</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-322.16983669694156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>-2.7353817486872885</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-15.811455194724317</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>-77.735381748504977</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-449.33746675436652</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>-139.99999999998599</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-809.24855491321603</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>-106.999999999971</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-618.49710982642137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>-115.99999999998499</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-670.52023121378875</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>-74.000000000069093</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-427.74566474028398</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>-81.999999999993605</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-473.9884393063216</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>-52.000000000020897</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-300.57803468220186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>-68.999999999959996</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-398.84393063560685</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>-17.599999999969981</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-101.73410404607137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>15.400000000045011</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
+        <v>89.017341040723295</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>6.4000000000310138</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
+        <v>36.994219653355913</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>48.399999999946914</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
+        <v>279.76878612686068</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>40.400000000022402</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
+        <v>233.52601156082306</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>70.399999999995117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
+        <v>406.9364161849428</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>53.400000000056011</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
+        <v>308.67052023153781</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>-99.000000000046398</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-572.25433526038375</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>-36.000000000058201</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-208.09248554946942</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>-91.000000000121901</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-526.01156069434614</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>-56.000000000039996</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-323.69942196554928</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>-49.999999999954497</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-289.0173410401996</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>-106.999999999971</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-618.49710982642137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>-59.999999999945402</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-346.82080924823953</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>106.99999999995192</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
+        <v>618.49710982631188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>169.99999999994012</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
+        <v>982.65895953722622</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>114.99999999987642</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
+        <v>664.7398843923495</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>149.99999999995833</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+        <v>867.05202312114636</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>156.00000000004383</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+        <v>901.73410404649599</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>99.000000000027327</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+        <v>572.25433526027427</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>146.00000000005292</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+        <v>843.93063583845606</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>-253.000000000043</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-1462.427745664987</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>-210.00000000003601</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-1213.8728323701525</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>-168.00000000012</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-971.09826589664783</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>-150.00000000009101</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-867.05202312191307</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>-182.99999999999301</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-1057.8034682080506</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>-91.999999999984496</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-531.79190751436158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>-77.999999999974506</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-450.86705202297424</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>-130.60000000002699</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-754.91329479784235</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>-87.600000000020003</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-506.35838150300788</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>-45.600000000103989</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-263.58381502950317</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>-27.600000000074999</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-159.53757225476841</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>-60.599999999977001</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-350.28901734090596</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>30.400000000031511</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
+        <v>175.72254335278308</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>44.400000000041501</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
+        <v>256.64739884417043</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>-238.999999999919</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-1381.5028901729427</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>-206.000000000017</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-1190.7514450868052</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>-158.99999999999201</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-919.07514450862323</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>-154.999999999973</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-895.95375722527592</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>-193.99999999996001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-1121.3872832367631</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>-88.999999999941807</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-514.45086705168671</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>-90.999999999894499</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-526.01156069303181</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>-32.999999999920675</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-190.75144508624703</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>-206.000000000017</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-1.0959411156363785E-10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>-158.99999999999201</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
+        <v>271.67630057807241</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>-154.999999999973</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
+        <v>294.79768786141972</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>-193.99999999996001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
+        <v>69.364161849932543</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>-88.999999999941807</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
+        <v>676.30057803500893</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>-90.999999999894499</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
+        <v>664.73988439366383</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>-177.000000000021</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-1023.121387283358</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>-97.000000000093706</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-560.69364161903866</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>-96.999999999980005</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-560.69364161838155</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>-88.999999999941807</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-514.45086705168671</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>-76.000000000021799</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-439.30635838162908</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>-194.00000000007401</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-1121.3872832374202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>-87.000000000102801</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-502.89017341099873</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>-125.73538174862099</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-726.79411415387813</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>-45.735381748693698</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-264.36636848955885</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>-45.735381748579996</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-264.36636848890174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>5.5292365028200123</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
+        <v>31.960904640578065</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>-37.735381748541798</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-218.12359392220691</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>13.529236502858211</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
+        <v>78.203679207272899</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>-24.735381748621791</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-142.97908525214928</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>26.529236502778218</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
+        <v>153.34818787733053</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>-142.735381748674</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-825.06001010794034</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>-91.470763497273992</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-528.73273697846048</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>-35.735381748702792</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-206.56290028151892</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>15.529236502697216</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
+        <v>89.764372847960885</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>-198.99999999995501</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-1150.2890173407829</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>-125.99999999986299</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-728.32369942117157</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183">
-        <v>-168.999999999983</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-976.87861271666316</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>-231.99999999985701</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-1341.0404624269204</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>-143.999999999892</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-832.36994219590622</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>-157.00000000003899</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-907.51445086727813</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>-116.999999999962</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-676.3005780344613</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>-60.999999999955008</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-352.60115606910654</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>12.000000000137007</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
+        <v>69.364161850504843</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>-30.999999999983004</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-179.19075144498674</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>-93.99999999985701</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-543.35260115524397</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>-5.9999999998919975</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-34.682080924229808</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>-19.000000000038995</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-109.82658959560172</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>21.000000000038</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
+        <v>121.38728323721512</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>-307.99999999999301</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-1780.3468208092065</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>-139.99999999998599</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-809.24855491321603</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>-160.999999999945</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-930.63583814996844</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>-123.99999999991</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-716.76300577982636</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>-128.000000000043</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-739.884393063831</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>-135.999999999967</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-786.12716762986861</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>-177.99999999999699</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-1028.9017341040305</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>-86.899999999995003</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-502.8901734103722</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>81.100000000012017</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.4">
+        <v>468.20809248561829</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>60.100000000053001</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.4">
+        <v>346.82080924886588</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>97.100000000088002</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.4">
+        <v>560.69364161900796</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>-128.000000000043</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.4">
+        <v>537.57225433500332</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>85.100000000031002</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.4">
+        <v>248.55491329480378</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>-206.000000000017</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-1190.7514450868036</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>-80.999999999903594</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-468.20809248499188</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>-107.99999999994699</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-624.27745664709255</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>-144.000000000005</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-832.36994219656071</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>-113.000000000056</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-653.17919075176883</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>-189.00000000007799</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-1092.4855491333988</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>-107.99999999994699</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-624.27745664709255</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>-100.400000000017</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-580.34682080919242</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>5.1999999999829924</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.4">
+        <v>30.057803468418797</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>110.79999999998299</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.4">
+        <v>640.46242774603002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218">
-        <v>24.600000000096401</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.4">
+        <v>142.19653179261934</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219">
-        <v>130.2000000000964</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.4">
+        <v>752.60115607023056</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220">
-        <v>-2.3999999999469992</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-13.87283236948133</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221">
-        <v>103.200000000053</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.4">
+        <v>596.53179190812989</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222">
-        <v>-38.400000000005008</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-221.96531791894949</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223">
-        <v>67.199999999994986</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.4">
+        <v>388.43930635866172</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224">
-        <v>-7.4000000000560107</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-42.774566474157609</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225">
-        <v>98.199999999943984</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.4">
+        <v>567.63005780345361</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226">
-        <v>-83.400000000077995</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-482.08092485578754</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227">
-        <v>22.199999999921999</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.4">
+        <v>128.32369942182368</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228">
-        <v>-2.3999999999469992</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.4">
+        <v>-13.87283236948133</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229">
-        <v>103.200000000053</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.4">
+        <v>596.53179190812989</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230">
-        <v>208.80000000005299</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.4">
+        <v>1206.9364161857411</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>0</v>
       </c>
